--- a/CGI/webui_api.xlsx
+++ b/CGI/webui_api.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="793" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="793" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="7" r:id="rId1"/>
-    <sheet name="find" sheetId="8" r:id="rId2"/>
-    <sheet name="dhcp" sheetId="10" r:id="rId3"/>
-    <sheet name="Logout" sheetId="1" r:id="rId4"/>
-    <sheet name="AdminConfig" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="SetParameter" sheetId="4" r:id="rId7"/>
-    <sheet name="GetParameter" sheetId="5" r:id="rId8"/>
-    <sheet name="UpdateLogtime" sheetId="6" r:id="rId9"/>
+    <sheet name="find (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="Logout" sheetId="1" r:id="rId3"/>
+    <sheet name="AdminConfig" sheetId="2" r:id="rId4"/>
+    <sheet name="Login" sheetId="3" r:id="rId5"/>
+    <sheet name="SetParameter" sheetId="4" r:id="rId6"/>
+    <sheet name="GetParameter" sheetId="5" r:id="rId7"/>
+    <sheet name="UpdateLogtime" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -72,23 +71,98 @@
     <t>{"Name":"bai","Id":"123456"}</t>
   </si>
   <si>
-    <t>{"Name":"bai","Id":"123456","Mes":{"age":"20","tel":"123456"}}</t>
+    <t>{
+   "Name":"bai",
+   "Id":"123456",
+   "Mes":
+         {"age":"20",
+         "tel":"123456"
+         }
+}</t>
   </si>
   <si>
-    <t>error:
-0 -- success
-non-zero: fail code</t>
+    <t>Name -- name
+Id -- id
+Mes --message
+age--age
+tel--telephone number</t>
+  </si>
+  <si>
+    <t>GETVsersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>{"ATC":"GetVersion"}</t>
+  </si>
+  <si>
+    <t>{
+    "openwrt": "15.05.1\n",
+    "kernel": "4.4.60\n",
+    "fw_version": "\"3.2.x001\"",
+    "full_fw_version": "\"3.2.x001.40409.1-r39\"",
+    "vendar_version": "\"3.2.x001.1\"",
+    "error": 0
+}</t>
+  </si>
+  <si>
+    <t>error:0 -- success</t>
+  </si>
+  <si>
+    <t>GetWifi</t>
+  </si>
+  <si>
+    <t>{"ATC":"GetWifi"}</t>
+  </si>
+  <si>
+    <t>{
+    "wifi_device": "wifi0\n",
+    "wifi_network": "lan\n",
+    "wifi_mode": "ap\n",
+    "wifi_ssid": "QWQ\n",
+    "wifi_encryption": "psk2+ccmp\n",
+    "wifi_key": "12345678\n",
+    "error": 0
+}</t>
+  </si>
+  <si>
+    <t>GetDHCP</t>
   </si>
   <si>
     <t>{"ATC":"GetDHCP"}</t>
   </si>
   <si>
-    <t>{"ipaddr": "192.168.1.1\n","netmask": "255.255.255.0\n","start": "100\n","limit": "150\n","leasetime": "12h\n","error": 0}</t>
+    <t>{
+    "ipaddr": "192.168.1.1\n",
+    "netmask": "255.255.255.0\n",
+    "start": "100\n",
+    "limit": "150\n",
+    "leasetime": "12h\n",
+    "error": 0
+}</t>
   </si>
   <si>
-    <t xml:space="preserve">error:
-0 -- success
+    <t xml:space="preserve">error:0 -- success
 </t>
+  </si>
+  <si>
+    <t>SetDHCP</t>
+  </si>
+  <si>
+    <t>{
+    "ATC":"SetDHCP",
+    "ipaddr":"192.168.1.1",
+    "netmask": "255.255.255.0",
+    "start": "100",
+    "limit": "150",
+    "leasetime": "12h"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "error": 0
+}</t>
   </si>
   <si>
     <r>
@@ -154,6 +228,11 @@
       </rPr>
       <t>{"error":0}</t>
     </r>
+  </si>
+  <si>
+    <t>error:
+0 -- success
+non-zero: fail code</t>
   </si>
   <si>
     <t>Module</t>
@@ -542,12 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -555,16 +628,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1027,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1206,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4530,13 +4612,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
@@ -4562,31 +4644,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:5">
+    <row r="2" customFormat="1" ht="102" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="36"/>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="36"/>
+    <row r="3" ht="102" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="114.75" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="102" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="96" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4596,80 +4740,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="28.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="44.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="106.571428571429" customWidth="1"/>
-    <col min="5" max="5" width="29.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="35" customFormat="1" ht="36.75" spans="1:5">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="38.25" spans="1:5">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="36"/>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -4688,15 +4765,15 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -4708,24 +4785,24 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:12">
       <c r="A2" s="21" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="12"/>
@@ -7517,7 +7594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -7548,10 +7625,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -7574,16 +7651,16 @@
     </row>
     <row r="2" ht="16.5" spans="1:18">
       <c r="A2" s="21" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -7592,14 +7669,14 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="33" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -11580,7 +11657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -11631,13 +11708,13 @@
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:16">
       <c r="A2" s="21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -11645,14 +11722,14 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="31" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
@@ -15236,7 +15313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -15275,10 +15352,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -15288,15 +15365,15 @@
         <v>4</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -15709,7 +15786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -15753,10 +15830,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -15774,13 +15851,13 @@
         <v>5</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="21" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -16343,7 +16420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -16366,15 +16443,15 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16384,24 +16461,24 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">

--- a/CGI/webui_api.xlsx
+++ b/CGI/webui_api.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -127,6 +127,14 @@
 }</t>
   </si>
   <si>
+    <t>error:0 -- success
+wifi_device--wifi设备号
+wifi_mode--
+wifi_ssid--wifi显示出来的名字
+wifi_encryption--wiFi的加密方式
+wifi_key--wiFi的密码</t>
+  </si>
+  <si>
     <t>GetDHCP</t>
   </si>
   <si>
@@ -143,8 +151,12 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">error:0 -- success
-</t>
+    <t>error:0 -- success
+ipaddr--网络的ip地址
+netmask--网络掩膜
+start--设备可分配的起始地址
+limit--为连接设备预留的地址数量
+leasetime--自动重启的时间</t>
   </si>
   <si>
     <t>SetDHCP</t>
@@ -162,6 +174,19 @@
   <si>
     <t>{
     "error": 0
+}</t>
+  </si>
+  <si>
+    <t>SetWifi</t>
+  </si>
+  <si>
+    <t>{
+    "ATC":"SetWifi",
+    "wifi_device": "wifi0",
+    "wifi_network": "lan",
+    "wifi_mode": "ap",
+    "wifi_ssid": "YUKU",
+    "wifi_key": "12345678"
 }</t>
   </si>
   <si>
@@ -622,26 +647,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -4615,7 +4640,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -4674,7 +4699,7 @@
       <c r="D3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4692,45 +4717,59 @@
         <v>18</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="96" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="37"/>
+    <row r="7" ht="108" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4765,15 +4804,15 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -4785,24 +4824,24 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:12">
       <c r="A2" s="21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="12"/>
@@ -7625,10 +7664,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -7651,16 +7690,16 @@
     </row>
     <row r="2" ht="16.5" spans="1:18">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -7669,14 +7708,14 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -11708,13 +11747,13 @@
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:16">
       <c r="A2" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -11722,14 +11761,14 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
@@ -15352,10 +15391,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -15365,15 +15404,15 @@
         <v>4</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -15830,10 +15869,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -15851,13 +15890,13 @@
         <v>5</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -16443,15 +16482,15 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16461,24 +16500,24 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
